--- a/teste_mesa.xlsx
+++ b/teste_mesa.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diegoc\Documents\procselass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/desenvolvimento/web/procselass/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>*</t>
   </si>
@@ -84,12 +87,21 @@
   </si>
   <si>
     <t>16 &gt;&gt;</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>0 &gt;&gt;</t>
+  </si>
+  <si>
+    <t>1o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,12 +119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -125,16 +143,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -142,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +174,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,77 +464,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H6:AA23"/>
+  <dimension ref="E2:AM20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="23" width="4" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" customWidth="1"/>
-    <col min="26" max="27" width="4.5703125" customWidth="1"/>
+    <col min="6" max="20" width="4" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" customWidth="1"/>
+    <col min="23" max="32" width="4" customWidth="1"/>
+    <col min="34" max="41" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
+    <row r="2" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="Y2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="5:39" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="M6">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="N6">
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="O6">
+      <c r="L3">
         <v>7</v>
       </c>
-      <c r="P6">
+      <c r="M3">
         <v>8</v>
       </c>
-      <c r="Q6">
+      <c r="N3">
         <v>9</v>
       </c>
-      <c r="R6">
+      <c r="O3">
         <v>10</v>
       </c>
-      <c r="S6">
+      <c r="P3">
         <v>11</v>
       </c>
-      <c r="T6">
+      <c r="Q3">
         <v>12</v>
       </c>
-      <c r="U6">
+      <c r="R3">
         <v>13</v>
       </c>
-      <c r="V6">
+      <c r="S3">
         <v>14</v>
       </c>
-      <c r="W6">
+      <c r="T3">
         <v>15</v>
       </c>
-      <c r="Z6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H7">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="V4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1">
+        <v>6</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="V5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="1">
+        <v>7</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+    </row>
+    <row r="6" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="V6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="1">
+        <v>8</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AH6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+    </row>
+    <row r="7" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -519,98 +801,136 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="Y7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="V7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AH7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AA7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="AI7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+    </row>
+    <row r="8" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="M8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="Y8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H9">
+      <c r="V8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1">
         <v>3</v>
       </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+    </row>
+    <row r="9" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="Y9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>8</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H10">
+      <c r="V9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1">
         <v>4</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -618,62 +938,78 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="Y10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H11">
+      <c r="V10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4</v>
+      </c>
+      <c r="X10" s="1">
         <v>5</v>
       </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+    </row>
+    <row r="11" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="Y11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="V11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="1">
+        <v>5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+    </row>
+    <row r="12" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -683,68 +1019,74 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="Y12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H13">
-        <v>7</v>
-      </c>
+      <c r="T12" s="2"/>
+      <c r="V12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="1">
+        <v>6</v>
+      </c>
+      <c r="X12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+    </row>
+    <row r="13" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="Y13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="1">
+      <c r="V13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="1">
+        <v>8</v>
+      </c>
+      <c r="X13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>8</v>
-      </c>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+    </row>
+    <row r="14" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -752,58 +1094,70 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="Y14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>9</v>
-      </c>
+      <c r="V14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4</v>
+      </c>
+      <c r="X14" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+    </row>
+    <row r="15" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="Y15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA15" s="1">
+      <c r="V15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <v>10</v>
-      </c>
+      <c r="X15" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+    </row>
+    <row r="16" spans="5:39" ht="19" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -816,25 +1170,35 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="Y16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="1">
+      <c r="V16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W16" s="1">
+        <v>5</v>
+      </c>
+      <c r="X16" s="1">
         <v>8</v>
       </c>
-      <c r="AA16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H17">
-        <v>11</v>
-      </c>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+    </row>
+    <row r="17" spans="5:32" ht="19" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -845,23 +1209,31 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="Y17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <v>12</v>
-      </c>
+      <c r="V17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="1">
+        <v>3</v>
+      </c>
+      <c r="X17" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+    </row>
+    <row r="18" spans="5:32" ht="19" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -873,26 +1245,32 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="Y18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H19">
-        <v>13</v>
-      </c>
+      <c r="T18" s="2"/>
+      <c r="V18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="1">
+        <v>4</v>
+      </c>
+      <c r="X18" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+    </row>
+    <row r="19" spans="5:32" ht="19" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -905,30 +1283,36 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="Y19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z19" s="1">
+      <c r="V19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="1">
         <v>5</v>
       </c>
-      <c r="AA19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H20">
-        <v>14</v>
-      </c>
+      <c r="X19" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+    </row>
+    <row r="20" spans="5:32" ht="19" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -936,99 +1320,12 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="Y20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H21">
-        <v>15</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="Y21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H22">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="Y22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="8:27" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>17</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AC2 AF2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>